--- a/src/coincap.xlsx
+++ b/src/coincap.xlsx
@@ -59,15 +59,15 @@
     <t>Lido Staked Ether</t>
   </si>
   <si>
+    <t>Solana</t>
+  </si>
+  <si>
     <t>Polkadot</t>
   </si>
   <si>
     <t>Litecoin</t>
   </si>
   <si>
-    <t>Solana</t>
-  </si>
-  <si>
     <t>Shiba Inu</t>
   </si>
   <si>
@@ -104,30 +104,30 @@
     <t>Ethereum Classic</t>
   </si>
   <si>
+    <t>Bitcoin Cash</t>
+  </si>
+  <si>
     <t>Stellar</t>
   </si>
   <si>
-    <t>Bitcoin Cash</t>
+    <t>Quant</t>
   </si>
   <si>
     <t>ApeCoin</t>
   </si>
   <si>
-    <t>Quant</t>
-  </si>
-  <si>
     <t>Cronos</t>
   </si>
   <si>
     <t>Lido DAO</t>
   </si>
   <si>
+    <t>NEAR Protocol</t>
+  </si>
+  <si>
     <t>Algorand</t>
   </si>
   <si>
-    <t>NEAR Protocol</t>
-  </si>
-  <si>
     <t>Filecoin</t>
   </si>
   <si>
@@ -149,28 +149,28 @@
     <t>Terra Luna Classic</t>
   </si>
   <si>
+    <t>Aave</t>
+  </si>
+  <si>
+    <t>Flow</t>
+  </si>
+  <si>
+    <t>Axie Infinity</t>
+  </si>
+  <si>
+    <t>MultiversX</t>
+  </si>
+  <si>
     <t>Pax Dollar</t>
   </si>
   <si>
-    <t>Aave</t>
-  </si>
-  <si>
-    <t>Flow</t>
-  </si>
-  <si>
-    <t>Axie Infinity</t>
-  </si>
-  <si>
-    <t>MultiversX</t>
+    <t>The Sandbox</t>
+  </si>
+  <si>
+    <t>TrueUSD</t>
   </si>
   <si>
     <t>Theta Network</t>
-  </si>
-  <si>
-    <t>TrueUSD</t>
-  </si>
-  <si>
-    <t>The Sandbox</t>
   </si>
 </sst>
 </file>
@@ -527,7 +527,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>18144.28</v>
+        <v>18803.44</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -535,7 +535,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>1398.39</v>
+        <v>1406.69</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -543,7 +543,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>1.0</v>
+        <v>0.99967</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -551,7 +551,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>285.56</v>
+        <v>287.82</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -559,7 +559,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>1.003</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -567,7 +567,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.374883</v>
+        <v>0.376305</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -575,7 +575,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.999429</v>
+        <v>0.999637</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -583,7 +583,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0.326146</v>
+        <v>0.327758</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -591,7 +591,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.079236</v>
+        <v>0.080053</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -599,7 +599,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0.886994</v>
+        <v>0.909893</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -607,7 +607,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>28.8</v>
+        <v>29.23</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -615,7 +615,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>1390.32</v>
+        <v>1397.01</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -623,7 +623,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>5.12</v>
+        <v>16.84</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -631,7 +631,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>83.88</v>
+        <v>5.22</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -639,7 +639,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>16.29</v>
+        <v>84.41</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -647,7 +647,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>9.21E-6</v>
+        <v>9.47E-6</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -655,7 +655,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>0.056523</v>
+        <v>0.057651</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -663,7 +663,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>1.001</v>
+        <v>0.99856</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -671,7 +671,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>15.79</v>
+        <v>15.34</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -679,7 +679,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>5.95</v>
+        <v>6.08</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -687,7 +687,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>11.77</v>
+        <v>12.06</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -695,7 +695,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>18155.42</v>
+        <v>18753.79</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -703,7 +703,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>3.47</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -711,7 +711,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>2.19</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -719,7 +719,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>6.3</v>
+        <v>6.34</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -727,7 +727,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>169.04</v>
+        <v>164.77</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -735,7 +735,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>20.55</v>
+        <v>21.08</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -743,7 +743,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>0.081372</v>
+        <v>119.93</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -751,7 +751,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>109.96</v>
+        <v>0.082068</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -759,7 +759,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>4.84</v>
+        <v>122.13</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -767,7 +767,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>121.45</v>
+        <v>4.77</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -775,7 +775,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>0.064941</v>
+        <v>0.066909</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -783,7 +783,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>1.83</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -791,7 +791,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>0.210013</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -799,7 +799,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>1.78</v>
+        <v>0.21166</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -807,7 +807,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>3.77</v>
+        <v>3.82</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -815,7 +815,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>0.01866448</v>
+        <v>0.01891372</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -823,7 +823,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>4.35</v>
+        <v>4.41</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -831,7 +831,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>0.04690418</v>
+        <v>0.04674705</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -839,7 +839,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>0.971189</v>
+        <v>0.983594</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -847,7 +847,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>1.004</v>
+        <v>0.999552</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -855,7 +855,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>0.00016471</v>
+        <v>0.00016882</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -863,7 +863,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>1.001</v>
+        <v>68.09</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -871,7 +871,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>64.46</v>
+        <v>0.895552</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -879,7 +879,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>0.86164</v>
+        <v>7.98</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -887,7 +887,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>7.86</v>
+        <v>37.49</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -895,7 +895,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>36.64</v>
+        <v>0.985623</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -903,7 +903,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>0.848547</v>
+        <v>0.553067</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -911,7 +911,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>1.001</v>
+        <v>0.999877</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -919,7 +919,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>0.524262</v>
+        <v>0.842795</v>
       </c>
     </row>
   </sheetData>
